--- a/biology/Zoologie/Hoplocampe_du_pommier/Hoplocampe_du_pommier.xlsx
+++ b/biology/Zoologie/Hoplocampe_du_pommier/Hoplocampe_du_pommier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoplocampa testudinea
 L'hoplocampe du pommier (Hoplocampa testudinea) est une espèce d'insectes de l'ordre des hyménoptères, de la famille des Tenthredinidae (tenthrèdes ou mouches à scie) dont la larve se développe dans les pommes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hoplocampe adulte mesure 5 à 7 mm de long et ressemble à la fois à une guêpe et à une mouche.
 Il a la tête jaune, est noir brillant sur la face dorsale et brun jaunâtre sur la face ventrale.
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,9 +589,11 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En agriculture durable, on recommande l'application de pyrèthre, de roténone ou de Ryania au stade calice afin de tuer les jeunes larves[1]. On répète l'application deux semaines plus tard.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En agriculture durable, on recommande l'application de pyrèthre, de roténone ou de Ryania au stade calice afin de tuer les jeunes larves. On répète l'application deux semaines plus tard.
 </t>
         </is>
       </c>
